--- a/test1package.xlsx
+++ b/test1package.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -161,6 +161,108 @@
   </x:si>
   <x:si>
     <x:t>Campaign name won't be listed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Opportunity tab,  and click on existing Opportunity name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Opportunity selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Opportunity name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Opportunity successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Opportunity tab,  and click on existing Opportunity to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Opportunity successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Product2 tab,  and click on existing Product2 name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Product2 selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Product2 name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Product2 successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Product2 tab,  and click on existing Product2 to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Product2 successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_7.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Opportunity then Verify Deleted Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Product2 tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check if Product2 name exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product2 name won't be listed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_8.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Product2 then Verify Deleted Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Contact tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check if Contact name exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact name won't be listed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -244,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J13" totalsRowShown="0">
-  <x:autoFilter ref="A1:J13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0">
+  <x:autoFilter ref="A1:J33"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -550,7 +652,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J13"/>
+  <x:dimension ref="A1:J33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -558,12 +660,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="43.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="46.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="60.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="42.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="64.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="44.840625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -853,6 +955,426 @@
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s"/>
+      <x:c r="F28" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s"/>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s"/>
+      <x:c r="F29" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s"/>
+      <x:c r="F30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s"/>
+      <x:c r="F31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s"/>
+      <x:c r="B32" s="0" t="s"/>
+      <x:c r="C32" s="0" t="s"/>
+      <x:c r="D32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s"/>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/test1package.xlsx
+++ b/test1package.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -263,6 +263,111 @@
   </x:si>
   <x:si>
     <x:t>Contact name won't be listed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Lead tab,  and click on existing Lead name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Lead selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Lead name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Lead successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Lead tab,  and click on existing Lead to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Lead successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Case tab,  and click on existing Case name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Case selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Case name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Case successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Case tab,  and click on existing Case to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Case successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_9.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Lead then Verify Deleted Campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_10.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Campaign then Verify Deleted Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Opportunity tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check if Opportunity name exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity name won't be listed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_11.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Opportunity then Verify Deleted Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Case tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check if Case name exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Case name won't be listed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -346,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0">
-  <x:autoFilter ref="A1:J33"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0">
+  <x:autoFilter ref="A1:J61"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -652,13 +757,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J33"/>
+  <x:dimension ref="A1:J61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.130625000000002" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="46.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
@@ -1376,6 +1481,592 @@
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s"/>
+      <x:c r="F36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s"/>
+      <x:c r="F37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s"/>
+      <x:c r="F38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s"/>
+      <x:c r="F39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s"/>
+      <x:c r="F40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s"/>
+      <x:c r="F42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s"/>
+      <x:c r="F47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s"/>
+      <x:c r="F52" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s"/>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s"/>
+      <x:c r="F53" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s"/>
+      <x:c r="F54" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s"/>
+      <x:c r="F55" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s"/>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s"/>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s"/>
+      <x:c r="B61" s="0" t="s"/>
+      <x:c r="C61" s="0" t="s"/>
+      <x:c r="D61" s="0" t="s"/>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
